--- a/logfc_Analysis/logfc_col_HC/meta_colgc_t2.xlsx
+++ b/logfc_Analysis/logfc_col_HC/meta_colgc_t2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_col_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE7A67C5-8630-48FD-B047-8208C3D7EE82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A26BC-DEFA-4DB9-8AD1-2FDB8853E53D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D39F581C-4F62-4F9C-864D-EEECA9849569}"/>
+    <workbookView xWindow="11004" yWindow="36" windowWidth="12036" windowHeight="8964" xr2:uid="{D39F581C-4F62-4F9C-864D-EEECA9849569}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="314">
   <si>
     <t>TAIR</t>
   </si>
@@ -946,6 +946,46 @@
   </si>
   <si>
     <t>GO:0000003, GO:0000228, GO:0005622, GO:0005634, GO:0005694, GO:0006139, GO:0006259, GO:0006310, GO:0006807, GO:0007049, GO:0007126, GO:0008152, GO:0009987, GO:0043226, GO:0044238, GO:0044464</t>
+  </si>
+  <si>
+    <t>Subcellular location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endoplasmic reticulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacuole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol, Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endoplasmic reticulum, Golgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golgi, Vacuole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1309,15 +1349,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC0F807-9D74-403C-9BC3-22252B03981C}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1328,19 +1368,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1351,19 +1394,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>839301</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1374,19 +1420,22 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>839565</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1397,19 +1446,22 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>837035</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1420,19 +1472,22 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>837378</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1443,19 +1498,22 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>837399</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1466,19 +1524,22 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>837568</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1489,19 +1550,22 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>837737</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1512,19 +1576,22 @@
         <v>48</v>
       </c>
       <c r="D9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>838158</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
       <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1535,19 +1602,22 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>838792</v>
       </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
       <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1558,19 +1628,22 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>839807</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1581,19 +1654,22 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>841962</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1604,19 +1680,22 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>843603</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1627,19 +1706,22 @@
         <v>73</v>
       </c>
       <c r="D14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>844297</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>75</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1650,19 +1732,22 @@
         <v>79</v>
       </c>
       <c r="D15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" t="s">
         <v>80</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>815960</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -1673,16 +1758,19 @@
         <v>84</v>
       </c>
       <c r="D16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>817306</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1693,16 +1781,19 @@
         <v>89</v>
       </c>
       <c r="D17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>817520</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -1713,19 +1804,22 @@
         <v>94</v>
       </c>
       <c r="D18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" t="s">
         <v>95</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>818086</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>96</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -1736,19 +1830,22 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" t="s">
         <v>101</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>818264</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>102</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -1759,19 +1856,22 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" t="s">
         <v>106</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>818331</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>107</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -1782,19 +1882,22 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" t="s">
         <v>111</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>818631</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>112</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -1805,19 +1908,22 @@
         <v>115</v>
       </c>
       <c r="D22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22" t="s">
         <v>116</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>819128</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>117</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -1828,19 +1934,22 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" t="s">
         <v>121</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>819896</v>
       </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
       <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -1851,19 +1960,22 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" t="s">
         <v>125</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>820148</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>126</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -1874,19 +1986,22 @@
         <v>130</v>
       </c>
       <c r="D25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25" t="s">
         <v>131</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>820345</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>132</v>
       </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -1897,19 +2012,22 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" t="s">
         <v>135</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>820581</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>136</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -1920,19 +2038,22 @@
         <v>139</v>
       </c>
       <c r="D27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E27" t="s">
         <v>140</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>820600</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>141</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>143</v>
       </c>
@@ -1943,19 +2064,22 @@
         <v>145</v>
       </c>
       <c r="D28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" t="s">
         <v>146</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>821534</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>147</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -1966,19 +2090,22 @@
         <v>151</v>
       </c>
       <c r="D29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E29" t="s">
         <v>152</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>821868</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>153</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -1989,19 +2116,22 @@
         <v>157</v>
       </c>
       <c r="D30" t="s">
+        <v>306</v>
+      </c>
+      <c r="E30" t="s">
         <v>158</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>823405</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>159</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>160</v>
       </c>
@@ -2012,19 +2142,22 @@
         <v>162</v>
       </c>
       <c r="D31" t="s">
+        <v>306</v>
+      </c>
+      <c r="E31" t="s">
         <v>163</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>824451</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>164</v>
       </c>
-      <c r="G31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -2035,19 +2168,22 @@
         <v>167</v>
       </c>
       <c r="D32" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" t="s">
         <v>168</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>824597</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>169</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -2058,19 +2194,22 @@
         <v>172</v>
       </c>
       <c r="D33" t="s">
+        <v>306</v>
+      </c>
+      <c r="E33" t="s">
         <v>173</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>824649</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>174</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>176</v>
       </c>
@@ -2081,19 +2220,22 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" t="s">
         <v>178</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>824777</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>179</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -2104,19 +2246,22 @@
         <v>182</v>
       </c>
       <c r="D35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E35" t="s">
         <v>183</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>824986</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>184</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>186</v>
       </c>
@@ -2127,19 +2272,22 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
+        <v>306</v>
+      </c>
+      <c r="E36" t="s">
         <v>188</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>825521</v>
       </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
       <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -2150,19 +2298,22 @@
         <v>192</v>
       </c>
       <c r="D37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" t="s">
         <v>193</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>825830</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>194</v>
       </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -2173,19 +2324,22 @@
         <v>197</v>
       </c>
       <c r="D38" t="s">
+        <v>306</v>
+      </c>
+      <c r="E38" t="s">
         <v>198</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>827091</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>199</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>200</v>
       </c>
@@ -2196,19 +2350,22 @@
         <v>202</v>
       </c>
       <c r="D39" t="s">
+        <v>308</v>
+      </c>
+      <c r="E39" t="s">
         <v>203</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>827258</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>204</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>205</v>
       </c>
@@ -2219,19 +2376,22 @@
         <v>207</v>
       </c>
       <c r="D40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E40" t="s">
         <v>208</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>827494</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>209</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -2242,19 +2402,22 @@
         <v>105</v>
       </c>
       <c r="D41" t="s">
+        <v>306</v>
+      </c>
+      <c r="E41" t="s">
         <v>212</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>827512</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -2265,19 +2428,22 @@
         <v>216</v>
       </c>
       <c r="D42" t="s">
+        <v>308</v>
+      </c>
+      <c r="E42" t="s">
         <v>217</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>827789</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>218</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>220</v>
       </c>
@@ -2288,19 +2454,22 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" t="s">
         <v>222</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>828241</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>223</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>225</v>
       </c>
@@ -2311,19 +2480,22 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" t="s">
         <v>227</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>828557</v>
       </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
       <c r="G44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>228</v>
       </c>
@@ -2334,19 +2506,22 @@
         <v>230</v>
       </c>
       <c r="D45" t="s">
+        <v>307</v>
+      </c>
+      <c r="E45" t="s">
         <v>231</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>828816</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>232</v>
       </c>
-      <c r="G45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>233</v>
       </c>
@@ -2357,19 +2532,22 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" t="s">
         <v>235</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>828972</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>236</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>237</v>
       </c>
@@ -2380,19 +2558,22 @@
         <v>239</v>
       </c>
       <c r="D47" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" t="s">
         <v>240</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>830501</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>241</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -2403,19 +2584,22 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" t="s">
         <v>245</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>830602</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>246</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>247</v>
       </c>
@@ -2426,19 +2610,22 @@
         <v>249</v>
       </c>
       <c r="D49" t="s">
+        <v>308</v>
+      </c>
+      <c r="E49" t="s">
         <v>250</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>830702</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>251</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>252</v>
       </c>
@@ -2449,19 +2636,22 @@
         <v>254</v>
       </c>
       <c r="D50" t="s">
+        <v>312</v>
+      </c>
+      <c r="E50" t="s">
         <v>255</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>831546</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>256</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>257</v>
       </c>
@@ -2472,19 +2662,22 @@
         <v>259</v>
       </c>
       <c r="D51" t="s">
+        <v>306</v>
+      </c>
+      <c r="E51" t="s">
         <v>260</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>832297</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>261</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>262</v>
       </c>
@@ -2495,19 +2688,22 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
+        <v>305</v>
+      </c>
+      <c r="E52" t="s">
         <v>264</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>832359</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>265</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>267</v>
       </c>
@@ -2518,19 +2714,22 @@
         <v>269</v>
       </c>
       <c r="D53" t="s">
+        <v>309</v>
+      </c>
+      <c r="E53" t="s">
         <v>270</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>833947</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>271</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>272</v>
       </c>
@@ -2541,19 +2740,22 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" t="s">
         <v>274</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>834350</v>
       </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
       <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>275</v>
       </c>
@@ -2564,19 +2766,22 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
+        <v>305</v>
+      </c>
+      <c r="E55" t="s">
         <v>277</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>834483</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>278</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>280</v>
       </c>
@@ -2587,19 +2792,22 @@
         <v>282</v>
       </c>
       <c r="D56" t="s">
+        <v>308</v>
+      </c>
+      <c r="E56" t="s">
         <v>283</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>834706</v>
       </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
       <c r="G56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>284</v>
       </c>
@@ -2610,19 +2818,22 @@
         <v>105</v>
       </c>
       <c r="D57" t="s">
+        <v>306</v>
+      </c>
+      <c r="E57" t="s">
         <v>286</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>834718</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>287</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>288</v>
       </c>
@@ -2633,19 +2844,22 @@
         <v>290</v>
       </c>
       <c r="D58" t="s">
+        <v>309</v>
+      </c>
+      <c r="E58" t="s">
         <v>291</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>834730</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>292</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>293</v>
       </c>
@@ -2656,19 +2870,22 @@
         <v>295</v>
       </c>
       <c r="D59" t="s">
+        <v>313</v>
+      </c>
+      <c r="E59" t="s">
         <v>296</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>835519</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>297</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>298</v>
       </c>
@@ -2679,15 +2896,18 @@
         <v>300</v>
       </c>
       <c r="D60" t="s">
+        <v>306</v>
+      </c>
+      <c r="E60" t="s">
         <v>301</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>836733</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>302</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>303</v>
       </c>
     </row>
